--- a/data/pca/factorExposure/factorExposure_2017-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01770410624707807</v>
+        <v>0.01088717787739389</v>
       </c>
       <c r="C2">
-        <v>0.01677858845967631</v>
+        <v>-0.04289609924482011</v>
       </c>
       <c r="D2">
-        <v>-0.02837499718174202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03013408286772597</v>
+      </c>
+      <c r="E2">
+        <v>0.04006107523187602</v>
+      </c>
+      <c r="F2">
+        <v>0.001062673401273121</v>
+      </c>
+      <c r="G2">
+        <v>0.1043528142319466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02398549901698216</v>
+        <v>0.04029997863159092</v>
       </c>
       <c r="C3">
-        <v>-0.004985333567123442</v>
+        <v>-0.09948695469142643</v>
       </c>
       <c r="D3">
-        <v>-0.09094129649115396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01785336900693739</v>
+      </c>
+      <c r="E3">
+        <v>0.1030159023700567</v>
+      </c>
+      <c r="F3">
+        <v>-0.005943841065038303</v>
+      </c>
+      <c r="G3">
+        <v>0.1575026273419377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03045303098747169</v>
+        <v>0.05599386459879848</v>
       </c>
       <c r="C4">
-        <v>0.005997234885285283</v>
+        <v>-0.06778852531568343</v>
       </c>
       <c r="D4">
-        <v>-0.07776619095936452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02476675428233218</v>
+      </c>
+      <c r="E4">
+        <v>0.03602506416286066</v>
+      </c>
+      <c r="F4">
+        <v>0.007631476917787438</v>
+      </c>
+      <c r="G4">
+        <v>0.09894571822922142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01144817691524765</v>
+        <v>0.03640849285024843</v>
       </c>
       <c r="C6">
-        <v>0.009905177888618949</v>
+        <v>-0.05019250976127133</v>
       </c>
       <c r="D6">
-        <v>-0.07381253670941376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01731402329205695</v>
+      </c>
+      <c r="E6">
+        <v>0.04118334966551863</v>
+      </c>
+      <c r="F6">
+        <v>0.003621910141756511</v>
+      </c>
+      <c r="G6">
+        <v>0.08796397397274856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.001761740811683411</v>
+        <v>0.0207862895893243</v>
       </c>
       <c r="C7">
-        <v>0.01232380764800993</v>
+        <v>-0.03915262634179879</v>
       </c>
       <c r="D7">
-        <v>-0.03384122936184709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01399011327416066</v>
+      </c>
+      <c r="E7">
+        <v>0.008311617388606319</v>
+      </c>
+      <c r="F7">
+        <v>-0.005550930966537667</v>
+      </c>
+      <c r="G7">
+        <v>0.1244558155894492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002583857854938086</v>
+        <v>0.002661490815296424</v>
       </c>
       <c r="C8">
-        <v>0.00247165251928845</v>
+        <v>-0.02392946786329284</v>
       </c>
       <c r="D8">
-        <v>0.007004987544740538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003989417429672764</v>
+      </c>
+      <c r="E8">
+        <v>0.03163893854741934</v>
+      </c>
+      <c r="F8">
+        <v>0.001617023213414562</v>
+      </c>
+      <c r="G8">
+        <v>0.07153862807359766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01425795446903034</v>
+        <v>0.03345143425783982</v>
       </c>
       <c r="C9">
-        <v>0.007070820121960033</v>
+        <v>-0.04985152942004326</v>
       </c>
       <c r="D9">
-        <v>-0.05649152061850309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01647618753137953</v>
+      </c>
+      <c r="E9">
+        <v>0.02479859347891169</v>
+      </c>
+      <c r="F9">
+        <v>0.006264457471465313</v>
+      </c>
+      <c r="G9">
+        <v>0.1000139009539046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1425896802069964</v>
+        <v>0.09854400058764202</v>
       </c>
       <c r="C10">
-        <v>-0.1043261693476695</v>
+        <v>0.1830579851266526</v>
       </c>
       <c r="D10">
-        <v>0.1141317999196356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01558819952370752</v>
+      </c>
+      <c r="E10">
+        <v>0.01953129990832365</v>
+      </c>
+      <c r="F10">
+        <v>-0.02285879450540686</v>
+      </c>
+      <c r="G10">
+        <v>0.05528819255935986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002871643775013072</v>
+        <v>0.03469434913469421</v>
       </c>
       <c r="C11">
-        <v>-0.001158429952584293</v>
+        <v>-0.05240564465486296</v>
       </c>
       <c r="D11">
-        <v>-0.0504181824792949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002491368823255922</v>
+      </c>
+      <c r="E11">
+        <v>0.01885789777104658</v>
+      </c>
+      <c r="F11">
+        <v>0.01648014386789639</v>
+      </c>
+      <c r="G11">
+        <v>0.0907694666427238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007733641446003091</v>
+        <v>0.03634580603989836</v>
       </c>
       <c r="C12">
-        <v>0.001365425418224405</v>
+        <v>-0.04710505482076206</v>
       </c>
       <c r="D12">
-        <v>-0.04416129764469098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006563809944059046</v>
+      </c>
+      <c r="E12">
+        <v>0.009592464048931925</v>
+      </c>
+      <c r="F12">
+        <v>-0.0003619085245959671</v>
+      </c>
+      <c r="G12">
+        <v>0.08217891746348786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01646282483728441</v>
+        <v>0.01492618705529565</v>
       </c>
       <c r="C13">
-        <v>0.01452911223614897</v>
+        <v>-0.04178723207894426</v>
       </c>
       <c r="D13">
-        <v>-0.03283711518230589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02680619088915024</v>
+      </c>
+      <c r="E13">
+        <v>0.03991095954471142</v>
+      </c>
+      <c r="F13">
+        <v>-0.001605935777541051</v>
+      </c>
+      <c r="G13">
+        <v>0.1419182219006334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002379645103932608</v>
+        <v>0.008169770853541536</v>
       </c>
       <c r="C14">
-        <v>0.006507992240564373</v>
+        <v>-0.02803362580644674</v>
       </c>
       <c r="D14">
-        <v>-0.01836480192924094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01027027349977768</v>
+      </c>
+      <c r="E14">
+        <v>0.00945784214789443</v>
+      </c>
+      <c r="F14">
+        <v>-0.007937710985598917</v>
+      </c>
+      <c r="G14">
+        <v>0.1093396053418661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00699787207142133</v>
+        <v>0.03354531404402425</v>
       </c>
       <c r="C16">
-        <v>-0.004094281160588066</v>
+        <v>-0.04536000180540897</v>
       </c>
       <c r="D16">
-        <v>-0.04003844971425734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001928785087771348</v>
+      </c>
+      <c r="E16">
+        <v>0.0151833794782981</v>
+      </c>
+      <c r="F16">
+        <v>-0.002449400428644954</v>
+      </c>
+      <c r="G16">
+        <v>0.09264323360565578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01062154956222562</v>
+        <v>0.02237789990097497</v>
       </c>
       <c r="C19">
-        <v>0.008133652492954313</v>
+        <v>-0.05107336112295257</v>
       </c>
       <c r="D19">
-        <v>-0.03708952546312091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01971960194915172</v>
+      </c>
+      <c r="E19">
+        <v>0.08499436260605282</v>
+      </c>
+      <c r="F19">
+        <v>0.01292817379196837</v>
+      </c>
+      <c r="G19">
+        <v>0.1396633401104351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.003454123962991993</v>
+        <v>0.01538369670075907</v>
       </c>
       <c r="C20">
-        <v>0.0104516437278736</v>
+        <v>-0.04183351088268352</v>
       </c>
       <c r="D20">
-        <v>-0.03151049301985292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01446489088839868</v>
+      </c>
+      <c r="E20">
+        <v>0.03894273588256521</v>
+      </c>
+      <c r="F20">
+        <v>-0.01647593821472717</v>
+      </c>
+      <c r="G20">
+        <v>0.1122868708997948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.008853945896111678</v>
+        <v>0.01109173435932841</v>
       </c>
       <c r="C21">
-        <v>0.009389174601411242</v>
+        <v>-0.03776354757849198</v>
       </c>
       <c r="D21">
-        <v>-0.01604340024101489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0195316827323088</v>
+      </c>
+      <c r="E21">
+        <v>0.05331478759704453</v>
+      </c>
+      <c r="F21">
+        <v>-0.00419348413998775</v>
+      </c>
+      <c r="G21">
+        <v>0.1414926659407023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009713591955757097</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006828832426861197</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.001880991774977279</v>
+      </c>
+      <c r="E22">
+        <v>0.01389603493456521</v>
+      </c>
+      <c r="F22">
+        <v>0.01051859087688393</v>
+      </c>
+      <c r="G22">
+        <v>-0.0003074337462307189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009677839747298738</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006829505202768793</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001876554868974761</v>
+      </c>
+      <c r="E23">
+        <v>0.0138553264970045</v>
+      </c>
+      <c r="F23">
+        <v>0.01048789823415525</v>
+      </c>
+      <c r="G23">
+        <v>-0.0004260062419454622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.000281527390944224</v>
+        <v>0.02851849314423463</v>
       </c>
       <c r="C24">
-        <v>0.006337975528605318</v>
+        <v>-0.04939820637696108</v>
       </c>
       <c r="D24">
-        <v>-0.04333489503108209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007190455002516785</v>
+      </c>
+      <c r="E24">
+        <v>0.01330879080649668</v>
+      </c>
+      <c r="F24">
+        <v>0.008727629122360308</v>
+      </c>
+      <c r="G24">
+        <v>0.0912743860501621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01721585429741819</v>
+        <v>0.04254134013619283</v>
       </c>
       <c r="C25">
-        <v>0.0006084613432914517</v>
+        <v>-0.05685815087209787</v>
       </c>
       <c r="D25">
-        <v>-0.05734100592356908</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01122540813164718</v>
+      </c>
+      <c r="E25">
+        <v>0.005261384946754949</v>
+      </c>
+      <c r="F25">
+        <v>0.002783796276171647</v>
+      </c>
+      <c r="G25">
+        <v>0.09817670938673155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01205654557695728</v>
+        <v>0.01384666122092734</v>
       </c>
       <c r="C26">
-        <v>0.01810900304393131</v>
+        <v>-0.01178609846697333</v>
       </c>
       <c r="D26">
-        <v>0.000613807723130356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02411895928935977</v>
+      </c>
+      <c r="E26">
+        <v>0.00973030376230632</v>
+      </c>
+      <c r="F26">
+        <v>-0.008026690426268858</v>
+      </c>
+      <c r="G26">
+        <v>0.0848345856185039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1914638738169323</v>
+        <v>0.1267640490166024</v>
       </c>
       <c r="C28">
-        <v>-0.1220494891834125</v>
+        <v>0.2425819853872261</v>
       </c>
       <c r="D28">
-        <v>0.1429107120463816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006697942352339213</v>
+      </c>
+      <c r="E28">
+        <v>0.008748283493773139</v>
+      </c>
+      <c r="F28">
+        <v>-0.01838838958707733</v>
+      </c>
+      <c r="G28">
+        <v>0.04893579425669287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007023817367964869</v>
+        <v>0.008485985942568778</v>
       </c>
       <c r="C29">
-        <v>0.00296789565681486</v>
+        <v>-0.02284039917842216</v>
       </c>
       <c r="D29">
-        <v>-0.01489885440001315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009344710895767347</v>
+      </c>
+      <c r="E29">
+        <v>0.005535583189384428</v>
+      </c>
+      <c r="F29">
+        <v>-0.01426079462909133</v>
+      </c>
+      <c r="G29">
+        <v>0.1010037858806898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01122366772863344</v>
+        <v>0.04033905310631942</v>
       </c>
       <c r="C30">
-        <v>0.02114896532370405</v>
+        <v>-0.06845711536315489</v>
       </c>
       <c r="D30">
-        <v>-0.09573565518949607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02937767640950045</v>
+      </c>
+      <c r="E30">
+        <v>0.06556141399832557</v>
+      </c>
+      <c r="F30">
+        <v>0.03906022789429837</v>
+      </c>
+      <c r="G30">
+        <v>0.1361755772518543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02390322146401326</v>
+        <v>0.05361085265345157</v>
       </c>
       <c r="C31">
-        <v>-0.0106550457589228</v>
+        <v>-0.03907691684819029</v>
       </c>
       <c r="D31">
-        <v>-0.03025614810967102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003753620942343923</v>
+      </c>
+      <c r="E31">
+        <v>-0.001518757724553848</v>
+      </c>
+      <c r="F31">
+        <v>-0.03895798750607222</v>
+      </c>
+      <c r="G31">
+        <v>0.09777828717344753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003810960611822986</v>
+        <v>0.002387989324835593</v>
       </c>
       <c r="C32">
-        <v>-0.007000521629577892</v>
+        <v>-0.02078461684607413</v>
       </c>
       <c r="D32">
-        <v>0.007578695818490031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002650256211594015</v>
+      </c>
+      <c r="E32">
+        <v>0.04016831752454734</v>
+      </c>
+      <c r="F32">
+        <v>0.03730980476607135</v>
+      </c>
+      <c r="G32">
+        <v>0.08885020038022177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009351833490894159</v>
+        <v>0.0279140196021521</v>
       </c>
       <c r="C33">
-        <v>0.006874578338365012</v>
+        <v>-0.05084537235864542</v>
       </c>
       <c r="D33">
-        <v>-0.04056819960189028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01635555634688262</v>
+      </c>
+      <c r="E33">
+        <v>0.04850737984429035</v>
+      </c>
+      <c r="F33">
+        <v>0.01294131027488457</v>
+      </c>
+      <c r="G33">
+        <v>0.1632572954277939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01268580442100849</v>
+        <v>0.04002049608258641</v>
       </c>
       <c r="C34">
-        <v>-0.01578394213118087</v>
+        <v>-0.05854731050025139</v>
       </c>
       <c r="D34">
-        <v>-0.05706881600888125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004381873782410785</v>
+      </c>
+      <c r="E34">
+        <v>0.0104303326035926</v>
+      </c>
+      <c r="F34">
+        <v>0.01936076255701936</v>
+      </c>
+      <c r="G34">
+        <v>0.09510849972719501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01300570684002134</v>
+        <v>0.01586158541011003</v>
       </c>
       <c r="C36">
-        <v>0.00390802684882108</v>
+        <v>-0.01041423149036835</v>
       </c>
       <c r="D36">
-        <v>-0.003909912729640785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01285760065533051</v>
+      </c>
+      <c r="E36">
+        <v>0.01069236390061076</v>
+      </c>
+      <c r="F36">
+        <v>-0.007485467264213348</v>
+      </c>
+      <c r="G36">
+        <v>0.09316227469275543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01808419546564702</v>
+        <v>0.03126521110425801</v>
       </c>
       <c r="C38">
-        <v>-0.0215058851676209</v>
+        <v>-0.03019203407036373</v>
       </c>
       <c r="D38">
-        <v>-0.04149561831128663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007512117422234512</v>
+      </c>
+      <c r="E38">
+        <v>0.006897777849288345</v>
+      </c>
+      <c r="F38">
+        <v>-0.01846529372956512</v>
+      </c>
+      <c r="G38">
+        <v>0.08649266334066689</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.009736062903960929</v>
+        <v>0.03671244921433122</v>
       </c>
       <c r="C39">
-        <v>0.01682717347851354</v>
+        <v>-0.07866335098877425</v>
       </c>
       <c r="D39">
-        <v>-0.09845547704433862</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01167886924302021</v>
+      </c>
+      <c r="E39">
+        <v>0.03062478438035151</v>
+      </c>
+      <c r="F39">
+        <v>0.01900358019953886</v>
+      </c>
+      <c r="G39">
+        <v>0.0909441009815138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01440737170748219</v>
+        <v>0.01356789856216363</v>
       </c>
       <c r="C40">
-        <v>0.002947897907016466</v>
+        <v>-0.03821266306885997</v>
       </c>
       <c r="D40">
-        <v>-0.02794131393230725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0148243419999803</v>
+      </c>
+      <c r="E40">
+        <v>0.03238410302813159</v>
+      </c>
+      <c r="F40">
+        <v>-0.01230899446414846</v>
+      </c>
+      <c r="G40">
+        <v>0.1240736759976865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01353807247135496</v>
+        <v>0.01998252409809704</v>
       </c>
       <c r="C41">
-        <v>-0.005406013914947579</v>
+        <v>-0.004010224186824908</v>
       </c>
       <c r="D41">
-        <v>0.01030218802534124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004718341734038828</v>
+      </c>
+      <c r="E41">
+        <v>0.00761843029813851</v>
+      </c>
+      <c r="F41">
+        <v>-0.01511964415341739</v>
+      </c>
+      <c r="G41">
+        <v>0.08672035268168378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03997117008840176</v>
+        <v>0.0080558385992729</v>
       </c>
       <c r="C42">
-        <v>0.08367867967953645</v>
+        <v>-0.02906425480445429</v>
       </c>
       <c r="D42">
-        <v>-0.1157904671631716</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08751736025166806</v>
+      </c>
+      <c r="E42">
+        <v>0.009088821828355119</v>
+      </c>
+      <c r="F42">
+        <v>-0.04183552170577404</v>
+      </c>
+      <c r="G42">
+        <v>-0.02570947103071394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01415987924178095</v>
+        <v>0.03519782469222065</v>
       </c>
       <c r="C43">
-        <v>-0.004849328130294146</v>
+        <v>-0.01910514944491852</v>
       </c>
       <c r="D43">
-        <v>0.01055806967569591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006086010883766018</v>
+      </c>
+      <c r="E43">
+        <v>0.02186723543434012</v>
+      </c>
+      <c r="F43">
+        <v>-0.00802054761203253</v>
+      </c>
+      <c r="G43">
+        <v>0.1197242156225116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001344411776456696</v>
+        <v>0.0136374747133254</v>
       </c>
       <c r="C44">
-        <v>0.00398305699694588</v>
+        <v>-0.05826316557220276</v>
       </c>
       <c r="D44">
-        <v>-0.04619710928962711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006944051617609392</v>
+      </c>
+      <c r="E44">
+        <v>0.02558055008802426</v>
+      </c>
+      <c r="F44">
+        <v>-0.007828798986588583</v>
+      </c>
+      <c r="G44">
+        <v>0.1111945091510585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0060202783871663</v>
+        <v>0.008776196827504159</v>
       </c>
       <c r="C46">
-        <v>0.00750655464617802</v>
+        <v>-0.01477503910127299</v>
       </c>
       <c r="D46">
-        <v>0.003942171112678601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01255791359039123</v>
+      </c>
+      <c r="E46">
+        <v>0.0003033144605242073</v>
+      </c>
+      <c r="F46">
+        <v>-0.01849468083513659</v>
+      </c>
+      <c r="G46">
+        <v>0.1089226460402848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02476317944086891</v>
+        <v>0.07847684850179582</v>
       </c>
       <c r="C47">
-        <v>-0.01922829256972327</v>
+        <v>-0.06887435585540592</v>
       </c>
       <c r="D47">
-        <v>-0.07650507986590087</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005077228663649661</v>
+      </c>
+      <c r="E47">
+        <v>-0.008961099568470177</v>
+      </c>
+      <c r="F47">
+        <v>-0.05338483812881597</v>
+      </c>
+      <c r="G47">
+        <v>0.08324468745288838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008517052187884754</v>
+        <v>0.01844907598267388</v>
       </c>
       <c r="C48">
-        <v>-0.004601091357068773</v>
+        <v>-0.01349574981660606</v>
       </c>
       <c r="D48">
-        <v>-0.0154636695494168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002498591659633329</v>
+      </c>
+      <c r="E48">
+        <v>0.006589062946774651</v>
+      </c>
+      <c r="F48">
+        <v>-0.01920972613350472</v>
+      </c>
+      <c r="G48">
+        <v>0.09865131201433266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0314276391042573</v>
+        <v>0.07499189964132218</v>
       </c>
       <c r="C50">
-        <v>-0.02181981290027329</v>
+        <v>-0.07227430872016224</v>
       </c>
       <c r="D50">
-        <v>-0.06818649027628002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002167943903617711</v>
+      </c>
+      <c r="E50">
+        <v>-0.005173054144739397</v>
+      </c>
+      <c r="F50">
+        <v>-0.05335559385256614</v>
+      </c>
+      <c r="G50">
+        <v>0.09331221483430391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00949167974006839</v>
+        <v>0.01400688013094344</v>
       </c>
       <c r="C51">
-        <v>0.0003321935442924784</v>
+        <v>-0.03690380738371781</v>
       </c>
       <c r="D51">
-        <v>-0.02744802721226686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01073231397924236</v>
+      </c>
+      <c r="E51">
+        <v>0.0310064060887394</v>
+      </c>
+      <c r="F51">
+        <v>0.01790825304003927</v>
+      </c>
+      <c r="G51">
+        <v>0.1263762894905105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03957217794730785</v>
+        <v>0.08178244075201319</v>
       </c>
       <c r="C53">
-        <v>-0.02713890355593988</v>
+        <v>-0.08519454902621354</v>
       </c>
       <c r="D53">
-        <v>-0.1253667524804778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003335098724251409</v>
+      </c>
+      <c r="E53">
+        <v>-0.02752748939097807</v>
+      </c>
+      <c r="F53">
+        <v>-0.06103296510745922</v>
+      </c>
+      <c r="G53">
+        <v>0.09237048265765548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01580211286205605</v>
+        <v>0.03163656598646254</v>
       </c>
       <c r="C54">
-        <v>-0.01449350833558351</v>
+        <v>-0.0189466305171047</v>
       </c>
       <c r="D54">
-        <v>0.001767432299955902</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001060283076383643</v>
+      </c>
+      <c r="E54">
+        <v>0.02021890252589038</v>
+      </c>
+      <c r="F54">
+        <v>-0.006347948968587368</v>
+      </c>
+      <c r="G54">
+        <v>0.1089684695024417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02382957089744035</v>
+        <v>0.07245333069806918</v>
       </c>
       <c r="C55">
-        <v>-0.01776911085715658</v>
+        <v>-0.06786930162302994</v>
       </c>
       <c r="D55">
-        <v>-0.1019423963346464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005014397734838192</v>
+      </c>
+      <c r="E55">
+        <v>-0.02520186059481231</v>
+      </c>
+      <c r="F55">
+        <v>-0.06139764263472539</v>
+      </c>
+      <c r="G55">
+        <v>0.06812320795396265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04464897047787374</v>
+        <v>0.1361082234813209</v>
       </c>
       <c r="C56">
-        <v>-0.03522959335541664</v>
+        <v>-0.1080540332299412</v>
       </c>
       <c r="D56">
-        <v>-0.1592408943276667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01250945865206378</v>
+      </c>
+      <c r="E56">
+        <v>-0.03800837027503256</v>
+      </c>
+      <c r="F56">
+        <v>-0.07790477529818686</v>
+      </c>
+      <c r="G56">
+        <v>0.04144893984986919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0196248241128087</v>
+        <v>0.00564075330484862</v>
       </c>
       <c r="C57">
-        <v>0.01348960681287274</v>
+        <v>-0.005761818770769804</v>
       </c>
       <c r="D57">
-        <v>-0.02785128028155296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02270836287906053</v>
+      </c>
+      <c r="E57">
+        <v>0.02489904829074947</v>
+      </c>
+      <c r="F57">
+        <v>0.004916101936997874</v>
+      </c>
+      <c r="G57">
+        <v>0.02313289546779055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01140541774901137</v>
+        <v>0.05091769790029631</v>
       </c>
       <c r="C58">
-        <v>-0.00471362894548579</v>
+        <v>-0.04447089661603832</v>
       </c>
       <c r="D58">
-        <v>-0.09987613177126949</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0227624101956926</v>
+      </c>
+      <c r="E58">
+        <v>0.8861068560741145</v>
+      </c>
+      <c r="F58">
+        <v>-0.340338067113771</v>
+      </c>
+      <c r="G58">
+        <v>-0.2409730031182062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2144803608780199</v>
+        <v>0.1594765084905232</v>
       </c>
       <c r="C59">
-        <v>-0.1433985964626341</v>
+        <v>0.2071672816564388</v>
       </c>
       <c r="D59">
-        <v>0.1198827037921529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01149781870443065</v>
+      </c>
+      <c r="E59">
+        <v>0.02191998969317321</v>
+      </c>
+      <c r="F59">
+        <v>-0.003872267889534577</v>
+      </c>
+      <c r="G59">
+        <v>0.04228776295950615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1990970476164712</v>
+        <v>0.2880745808843177</v>
       </c>
       <c r="C60">
-        <v>-0.1126019551776806</v>
+        <v>-0.1130880137475942</v>
       </c>
       <c r="D60">
-        <v>-0.1637983070600363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01285411711759976</v>
+      </c>
+      <c r="E60">
+        <v>0.03354830487176801</v>
+      </c>
+      <c r="F60">
+        <v>0.3462240906623953</v>
+      </c>
+      <c r="G60">
+        <v>-0.1630585348346294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001731332082404027</v>
+        <v>0.03838112136946702</v>
       </c>
       <c r="C61">
-        <v>0.002535358971163141</v>
+        <v>-0.06566154752090483</v>
       </c>
       <c r="D61">
-        <v>-0.07556000458634941</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005817654430658715</v>
+      </c>
+      <c r="E61">
+        <v>0.02605705490653243</v>
+      </c>
+      <c r="F61">
+        <v>0.0120834123299496</v>
+      </c>
+      <c r="G61">
+        <v>0.09906315945755603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005344231857435758</v>
+        <v>0.01488248527634972</v>
       </c>
       <c r="C63">
-        <v>0.004947049070365471</v>
+        <v>-0.03055398510995393</v>
       </c>
       <c r="D63">
-        <v>-0.02524408164779714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008762571590906765</v>
+      </c>
+      <c r="E63">
+        <v>0.006540174745410829</v>
+      </c>
+      <c r="F63">
+        <v>-0.01429588026501697</v>
+      </c>
+      <c r="G63">
+        <v>0.09429260602467748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02678977238270621</v>
+        <v>0.04984107947184478</v>
       </c>
       <c r="C64">
-        <v>-0.01202888566121647</v>
+        <v>-0.04685901284801659</v>
       </c>
       <c r="D64">
-        <v>-0.05541966251729129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006197153472447151</v>
+      </c>
+      <c r="E64">
+        <v>0.007784657221391929</v>
+      </c>
+      <c r="F64">
+        <v>0.00278597448916216</v>
+      </c>
+      <c r="G64">
+        <v>0.09978212696672903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03453360248542621</v>
+        <v>0.07516669947716728</v>
       </c>
       <c r="C65">
-        <v>-0.003293202626528146</v>
+        <v>-0.05814928507635786</v>
       </c>
       <c r="D65">
-        <v>-0.1147689755535659</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01702672831294029</v>
+      </c>
+      <c r="E65">
+        <v>0.04468083484734609</v>
+      </c>
+      <c r="F65">
+        <v>0.02517053168026002</v>
+      </c>
+      <c r="G65">
+        <v>0.04406137456749426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00783417929511316</v>
+        <v>0.05012813142014237</v>
       </c>
       <c r="C66">
-        <v>0.01512832575341605</v>
+        <v>-0.1055428296848657</v>
       </c>
       <c r="D66">
-        <v>-0.1398885157148063</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01195053013911381</v>
+      </c>
+      <c r="E66">
+        <v>0.04512240363261803</v>
+      </c>
+      <c r="F66">
+        <v>0.03071067535678499</v>
+      </c>
+      <c r="G66">
+        <v>0.106069569786062</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03919937732005054</v>
+        <v>0.05427473012616948</v>
       </c>
       <c r="C67">
-        <v>-0.03167610325932027</v>
+        <v>-0.03432180266580367</v>
       </c>
       <c r="D67">
-        <v>-0.06170690100089637</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006066060443309592</v>
+      </c>
+      <c r="E67">
+        <v>-0.003015075699004839</v>
+      </c>
+      <c r="F67">
+        <v>-0.01690612475476093</v>
+      </c>
+      <c r="G67">
+        <v>0.07366713515923599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2231188940510027</v>
+        <v>0.1572564330037457</v>
       </c>
       <c r="C68">
-        <v>-0.1259572092784336</v>
+        <v>0.2711059232054023</v>
       </c>
       <c r="D68">
-        <v>0.1767123073661332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005633414260102163</v>
+      </c>
+      <c r="E68">
+        <v>0.01017639194892748</v>
+      </c>
+      <c r="F68">
+        <v>-0.04048556847600764</v>
+      </c>
+      <c r="G68">
+        <v>0.02927932598408228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03072167463594232</v>
+        <v>0.08193252638129468</v>
       </c>
       <c r="C69">
-        <v>-0.02788279430063157</v>
+        <v>-0.07159284907458031</v>
       </c>
       <c r="D69">
-        <v>-0.07806486897138347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009020660641748807</v>
+      </c>
+      <c r="E69">
+        <v>-0.02206352075893133</v>
+      </c>
+      <c r="F69">
+        <v>-0.03412302513666946</v>
+      </c>
+      <c r="G69">
+        <v>0.09998857891308716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.181500908327764</v>
+        <v>0.1417646959091058</v>
       </c>
       <c r="C71">
-        <v>-0.1100967477778836</v>
+        <v>0.228439248095177</v>
       </c>
       <c r="D71">
-        <v>0.1205517685578638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002735553757272658</v>
+      </c>
+      <c r="E71">
+        <v>0.03078017014020164</v>
+      </c>
+      <c r="F71">
+        <v>-0.02909008693339845</v>
+      </c>
+      <c r="G71">
+        <v>0.07021402947565708</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01678788889728445</v>
+        <v>0.08613826645088918</v>
       </c>
       <c r="C72">
-        <v>-0.01941903418526311</v>
+        <v>-0.06749573496839832</v>
       </c>
       <c r="D72">
-        <v>-0.1046962416527571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008754315287282884</v>
+      </c>
+      <c r="E72">
+        <v>-0.008913435336591299</v>
+      </c>
+      <c r="F72">
+        <v>0.03079164289530642</v>
+      </c>
+      <c r="G72">
+        <v>0.08937697781852344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2490010052016966</v>
+        <v>0.3759520362428496</v>
       </c>
       <c r="C73">
-        <v>-0.1357196430584909</v>
+        <v>-0.1170091342308821</v>
       </c>
       <c r="D73">
-        <v>-0.292819105482888</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02232881729546904</v>
+      </c>
+      <c r="E73">
+        <v>0.1203735883804225</v>
+      </c>
+      <c r="F73">
+        <v>0.57487800527091</v>
+      </c>
+      <c r="G73">
+        <v>-0.2892700430885365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.05030727711742092</v>
+        <v>0.1053048241490926</v>
       </c>
       <c r="C74">
-        <v>-0.04111370024915013</v>
+        <v>-0.1096842816387283</v>
       </c>
       <c r="D74">
-        <v>-0.1740774195034304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009384011388724718</v>
+      </c>
+      <c r="E74">
+        <v>-0.01078851388428179</v>
+      </c>
+      <c r="F74">
+        <v>-0.0670307151644849</v>
+      </c>
+      <c r="G74">
+        <v>0.08119951549314429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1168501004099625</v>
+        <v>0.2491423720073221</v>
       </c>
       <c r="C75">
-        <v>-0.09060607795521443</v>
+        <v>-0.1511753600973914</v>
       </c>
       <c r="D75">
-        <v>-0.2955002121664486</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03151210545994245</v>
+      </c>
+      <c r="E75">
+        <v>-0.08027674076672692</v>
+      </c>
+      <c r="F75">
+        <v>-0.1617107576924156</v>
+      </c>
+      <c r="G75">
+        <v>-0.02615645052811039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05231453090565185</v>
+        <v>0.1174608737320849</v>
       </c>
       <c r="C76">
-        <v>-0.04841082687055469</v>
+        <v>-0.1102354104398882</v>
       </c>
       <c r="D76">
-        <v>-0.2002067080655711</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01745543428860143</v>
+      </c>
+      <c r="E76">
+        <v>-0.029481265329685</v>
+      </c>
+      <c r="F76">
+        <v>-0.09420597451121462</v>
+      </c>
+      <c r="G76">
+        <v>0.0567113362020692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01870881353692819</v>
+        <v>0.0706426337523743</v>
       </c>
       <c r="C77">
-        <v>-0.001613788643620138</v>
+        <v>-0.059012196013333</v>
       </c>
       <c r="D77">
-        <v>-0.08193523347272191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01016745684178962</v>
+      </c>
+      <c r="E77">
+        <v>0.04933020001715149</v>
+      </c>
+      <c r="F77">
+        <v>0.005301100616112012</v>
+      </c>
+      <c r="G77">
+        <v>0.06789338533791817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.009163614984689991</v>
+        <v>0.04224973811418728</v>
       </c>
       <c r="C78">
-        <v>-0.001475172817572442</v>
+        <v>-0.04979461600154465</v>
       </c>
       <c r="D78">
-        <v>-0.06373636956073084</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006235527210518724</v>
+      </c>
+      <c r="E78">
+        <v>0.03513378160594312</v>
+      </c>
+      <c r="F78">
+        <v>0.0339182675114987</v>
+      </c>
+      <c r="G78">
+        <v>0.1023661971884063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0004812291830198703</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005549193253520805</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0002907064031939425</v>
+      </c>
+      <c r="E79">
+        <v>0.00294008908368247</v>
+      </c>
+      <c r="F79">
+        <v>0.001912914859824813</v>
+      </c>
+      <c r="G79">
+        <v>0.0008258993015509362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03872198301152363</v>
+        <v>0.04472247846173803</v>
       </c>
       <c r="C80">
-        <v>-0.01279794040579131</v>
+        <v>-0.05052799245908029</v>
       </c>
       <c r="D80">
-        <v>-0.07745365438594272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01306043624989065</v>
+      </c>
+      <c r="E80">
+        <v>0.02596143082767966</v>
+      </c>
+      <c r="F80">
+        <v>0.005206244743251812</v>
+      </c>
+      <c r="G80">
+        <v>0.05269721410184774</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0624831018138466</v>
+        <v>0.1375583760136088</v>
       </c>
       <c r="C81">
-        <v>-0.04806786878941108</v>
+        <v>-0.09710959614811131</v>
       </c>
       <c r="D81">
-        <v>-0.1650098280330917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01510378013643879</v>
+      </c>
+      <c r="E81">
+        <v>-0.04375570810889835</v>
+      </c>
+      <c r="F81">
+        <v>-0.1233447688536307</v>
+      </c>
+      <c r="G81">
+        <v>0.01846302788121311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.002370028853224412</v>
+        <v>0.1396884501822311</v>
       </c>
       <c r="C82">
-        <v>-0.001700439191976454</v>
+        <v>-0.08258829785595391</v>
       </c>
       <c r="D82">
-        <v>-0.001798618014038997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01066071486684001</v>
+      </c>
+      <c r="E82">
+        <v>-0.1127947011419872</v>
+      </c>
+      <c r="F82">
+        <v>-0.05855700531414973</v>
+      </c>
+      <c r="G82">
+        <v>0.05595632150376986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01244219228408855</v>
+        <v>0.03614809437837364</v>
       </c>
       <c r="C83">
-        <v>-0.003527423276116399</v>
+        <v>-0.02895133543248894</v>
       </c>
       <c r="D83">
-        <v>-0.01832625646823785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006042940313822514</v>
+      </c>
+      <c r="E83">
+        <v>0.03249027224047342</v>
+      </c>
+      <c r="F83">
+        <v>0.02728657761804313</v>
+      </c>
+      <c r="G83">
+        <v>0.06228939014242585</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0966951424340769</v>
+        <v>0.2098604971201349</v>
       </c>
       <c r="C85">
-        <v>-0.06287950657694143</v>
+        <v>-0.1477499203513866</v>
       </c>
       <c r="D85">
-        <v>-0.2624675076785163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01697966345775122</v>
+      </c>
+      <c r="E85">
+        <v>-0.1093585092678205</v>
+      </c>
+      <c r="F85">
+        <v>-0.1029829358617435</v>
+      </c>
+      <c r="G85">
+        <v>-0.06561242559814247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01378133888649376</v>
+        <v>0.01313986956928215</v>
       </c>
       <c r="C86">
-        <v>-0.003056039609982523</v>
+        <v>-0.02577309197739923</v>
       </c>
       <c r="D86">
-        <v>-0.03611112305062238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01166108240044857</v>
+      </c>
+      <c r="E86">
+        <v>0.05350322901716111</v>
+      </c>
+      <c r="F86">
+        <v>0.01300386194856988</v>
+      </c>
+      <c r="G86">
+        <v>0.1938488308978417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004770165523092687</v>
+        <v>0.0218027753446025</v>
       </c>
       <c r="C87">
-        <v>0.01279890531373801</v>
+        <v>-0.01930903621183433</v>
       </c>
       <c r="D87">
-        <v>-0.02580317649867992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01221843559543837</v>
+      </c>
+      <c r="E87">
+        <v>0.09724458736113256</v>
+      </c>
+      <c r="F87">
+        <v>-0.001932620484269042</v>
+      </c>
+      <c r="G87">
+        <v>0.1215582802443651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05154538179366844</v>
+        <v>0.0929348982204825</v>
       </c>
       <c r="C88">
-        <v>-0.006856531435185897</v>
+        <v>-0.0687951140978689</v>
       </c>
       <c r="D88">
-        <v>-0.04365420564428391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02205014711367972</v>
+      </c>
+      <c r="E88">
+        <v>-0.005034820930702839</v>
+      </c>
+      <c r="F88">
+        <v>-0.02036064010661588</v>
+      </c>
+      <c r="G88">
+        <v>0.1038660905308866</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3311372359305533</v>
+        <v>0.231642213029513</v>
       </c>
       <c r="C89">
-        <v>-0.1972197756611228</v>
+        <v>0.3681063111987429</v>
       </c>
       <c r="D89">
-        <v>0.2167850019801157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.000238554630584897</v>
+      </c>
+      <c r="E89">
+        <v>-0.02060512963569274</v>
+      </c>
+      <c r="F89">
+        <v>-0.02584043804685091</v>
+      </c>
+      <c r="G89">
+        <v>0.06965528745419568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2767034533635365</v>
+        <v>0.20795902759583</v>
       </c>
       <c r="C90">
-        <v>-0.1686958997255706</v>
+        <v>0.3172336251437279</v>
       </c>
       <c r="D90">
-        <v>0.1962155837759918</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004618482561695393</v>
+      </c>
+      <c r="E90">
+        <v>-0.0008652440304499876</v>
+      </c>
+      <c r="F90">
+        <v>-0.0461629031218298</v>
+      </c>
+      <c r="G90">
+        <v>0.04234526904370658</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09674076032775306</v>
+        <v>0.1857405589375784</v>
       </c>
       <c r="C91">
-        <v>-0.07775777584661214</v>
+        <v>-0.1401271688059427</v>
       </c>
       <c r="D91">
-        <v>-0.2199966057735082</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0222122190095205</v>
+      </c>
+      <c r="E91">
+        <v>-0.07278473844628716</v>
+      </c>
+      <c r="F91">
+        <v>-0.13349342403729</v>
+      </c>
+      <c r="G91">
+        <v>0.03205845485901073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2290307614149458</v>
+        <v>0.1995403770657988</v>
       </c>
       <c r="C92">
-        <v>-0.1756832411648673</v>
+        <v>0.2577988860436709</v>
       </c>
       <c r="D92">
-        <v>0.09998833528094211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03828362341621069</v>
+      </c>
+      <c r="E92">
+        <v>0.03401620223774954</v>
+      </c>
+      <c r="F92">
+        <v>-0.06064484718266912</v>
+      </c>
+      <c r="G92">
+        <v>0.1108548098181668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2947789078468422</v>
+        <v>0.2321084633496831</v>
       </c>
       <c r="C93">
-        <v>-0.1867350839500778</v>
+        <v>0.311496757620173</v>
       </c>
       <c r="D93">
-        <v>0.1615627763674693</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01138750827955763</v>
+      </c>
+      <c r="E93">
+        <v>0.0009653756311228182</v>
+      </c>
+      <c r="F93">
+        <v>-0.04279897567959468</v>
+      </c>
+      <c r="G93">
+        <v>0.0570369719690756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1365323804056387</v>
+        <v>0.3193167372501834</v>
       </c>
       <c r="C94">
-        <v>-0.07908958809250644</v>
+        <v>-0.1835905648819649</v>
       </c>
       <c r="D94">
-        <v>-0.279327446242328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02008366265301292</v>
+      </c>
+      <c r="E94">
+        <v>-0.253077776827254</v>
+      </c>
+      <c r="F94">
+        <v>-0.4618653033343421</v>
+      </c>
+      <c r="G94">
+        <v>-0.4000216023236118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006017710332846874</v>
+        <v>0.09879952489160336</v>
       </c>
       <c r="C95">
-        <v>-0.01302745905121322</v>
+        <v>-0.08734026560288284</v>
       </c>
       <c r="D95">
-        <v>-0.1252208762079989</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01014430167361344</v>
+      </c>
+      <c r="E95">
+        <v>0.08747891644958113</v>
+      </c>
+      <c r="F95">
+        <v>0.1652982664374216</v>
+      </c>
+      <c r="G95">
+        <v>0.02370261210894691</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1380627152682645</v>
+        <v>0.1932318676967998</v>
       </c>
       <c r="C98">
-        <v>-0.1049237126166468</v>
+        <v>-0.04426109723383156</v>
       </c>
       <c r="D98">
-        <v>-0.1263202629289761</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01234101971333214</v>
+      </c>
+      <c r="E98">
+        <v>0.09289390272608471</v>
+      </c>
+      <c r="F98">
+        <v>0.2351732834107201</v>
+      </c>
+      <c r="G98">
+        <v>-0.02701264170940824</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006756758835149749</v>
+        <v>0.00826834956129761</v>
       </c>
       <c r="C101">
-        <v>0.002958783916643016</v>
+        <v>-0.0228575296181913</v>
       </c>
       <c r="D101">
-        <v>-0.01483792080482221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009185002403368224</v>
+      </c>
+      <c r="E101">
+        <v>0.005284577847637205</v>
+      </c>
+      <c r="F101">
+        <v>-0.01518058942111642</v>
+      </c>
+      <c r="G101">
+        <v>0.1000416598654863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05947947784384863</v>
+        <v>0.115164769999979</v>
       </c>
       <c r="C102">
-        <v>-0.03065858746672672</v>
+        <v>-0.08212150465768843</v>
       </c>
       <c r="D102">
-        <v>-0.1360663785059474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008716818715770205</v>
+      </c>
+      <c r="E102">
+        <v>-0.0380109088186137</v>
+      </c>
+      <c r="F102">
+        <v>-0.03927922672908557</v>
+      </c>
+      <c r="G102">
+        <v>0.01271977540229022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5299132497297933</v>
+        <v>0.02118444556226562</v>
       </c>
       <c r="C104">
-        <v>0.8376326813114136</v>
+        <v>0.02967070369321012</v>
       </c>
       <c r="D104">
-        <v>0.01990765477445319</v>
+        <v>0.9877871348807469</v>
+      </c>
+      <c r="E104">
+        <v>-0.0550293447955365</v>
+      </c>
+      <c r="F104">
+        <v>-0.03255001940461531</v>
+      </c>
+      <c r="G104">
+        <v>-0.04008056923939564</v>
       </c>
     </row>
   </sheetData>
